--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
     <sheet name="WeaponTable" sheetId="2" r:id="rId2"/>
-    <sheet name="ItemTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -108,7 +107,8 @@
 1 RIFFLE
 2 ROCKET LAUNCHER
 3 Sword
-4 Grenade</t>
+4 Grenade
+5 Heal pack</t>
         </r>
       </text>
     </comment>
@@ -2352,7 +2352,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>데미지</t>
+          <t xml:space="preserve">데미지
+</t>
         </r>
       </text>
     </comment>
@@ -4482,6 +4483,99 @@
             <charset val="129"/>
           </rPr>
           <t>총알수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>힐량</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>힐팩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>걸리는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
         </r>
       </text>
     </comment>
@@ -4490,7 +4584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
   <si>
     <t>FullHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4660,83 +4754,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>equipPos_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipPos_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipPos_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipRot_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipRot_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipRot_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponeRot_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponeRot_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sponeRot_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipScale_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipScale_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipScale_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackTiming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓런쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>launcherGravity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/Gun01_01_Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun02_01_Base/Gun02_01_Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL_01_BazookaBase/RL_01_BazookaBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseOxy_WALK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미착용 / 걸어갈때 초댕 산소 소모량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Attack_Gun_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_StartShotFlare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_StartShotFlare_Yellow</t>
+  </si>
+  <si>
+    <t>Effect_Bullet_Trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Attack_Gun_Yellow_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletGreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Boom_Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BreakStone</t>
+  </si>
+  <si>
+    <t>Effect_BreakStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Bullet_Big_Yellow</t>
+  </si>
+  <si>
+    <t>bulletPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Boom_Yellow_Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee_01_Base/Melee_01_Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_DamageMeleeBlue</t>
+  </si>
+  <si>
+    <t>shotEffectPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherHitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee_02_ShortSword/Melee_02_ShortSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_AttackSword_02</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryTitle_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryTitle_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryDesc_kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryDesc_eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletColliderRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherHitSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponGetColliderRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firePoint_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firePoint_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firePoint_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomEffectColliderRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_center_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_center_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordCollider_center_z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_AttackSword_01,Effect_AttackSword_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipPos_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipPos_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipPos_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_eng</t>
+    <t>ETC_02_RecoveryKit/ETC_02_RecoveryKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_HealKit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4744,238 +5085,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로켓런쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launcherGravity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/Gun01_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun02_01_Base/Gun02_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL_01_BazookaBase/RL_01_BazookaBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseOxy_WALK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미착용 / 걸어갈때 초댕 산소 소모량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Attack_Gun_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_StartShotFlare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_StartShotFlare_Yellow</t>
-  </si>
-  <si>
-    <t>Effect_Bullet_Trail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Attack_Gun_Yellow_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletGreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Boom_Green</t>
+    <t>힐팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healUseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_01_Grenade/ETC_01_Grenade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effect_BreakStone</t>
-  </si>
-  <si>
-    <t>Effect_BreakStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Bullet_Big_Yellow</t>
-  </si>
-  <si>
-    <t>bulletPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effect_Boom_Yellow_Big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee_01_Base/Melee_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_DamageMeleeBlue</t>
-  </si>
-  <si>
-    <t>shotEffectPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHitEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherHitEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee_02_ShortSword/Melee_02_ShortSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단검단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_AttackSword_02</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryTitle_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryTitle_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryDesc_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryDesc_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherHitSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weaponGetColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boomEffectColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_AttackSword_01,Effect_AttackSword_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5342,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -5449,13 +5591,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>0.2</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5588,198 +5730,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR6" sqref="AR6"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.375" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.625" customWidth="1"/>
     <col min="19" max="19" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.75" customWidth="1"/>
-    <col min="22" max="24" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="10.625" customWidth="1"/>
     <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="10.625" customWidth="1"/>
+    <col min="42" max="42" width="22.25" customWidth="1"/>
+    <col min="43" max="48" width="10.625" customWidth="1"/>
+    <col min="49" max="49" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.625" customWidth="1"/>
+    <col min="52" max="52" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="W1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>107</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>108</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>109</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
+      <c r="AX1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5787,22 +5922,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
         <v>80</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
       </c>
       <c r="O2">
         <v>1021</v>
@@ -5865,7 +6000,7 @@
         <v>0.5</v>
       </c>
       <c r="AL2">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AM2">
         <v>-0.01</v>
@@ -5900,8 +6035,14 @@
       <c r="AW2">
         <v>0</v>
       </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5909,25 +6050,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
         <v>82</v>
       </c>
-      <c r="M3" t="s">
-        <v>83</v>
-      </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3">
         <v>2804</v>
@@ -5990,7 +6131,7 @@
         <v>0.3</v>
       </c>
       <c r="AL3">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AM3">
         <v>-0.01</v>
@@ -6025,8 +6166,14 @@
       <c r="AW3">
         <v>0</v>
       </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6034,25 +6181,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
-        <v>65</v>
-      </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4">
         <v>1021</v>
@@ -6115,7 +6262,7 @@
         <v>0.25</v>
       </c>
       <c r="AL4">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -6150,8 +6297,14 @@
       <c r="AW4">
         <v>0</v>
       </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6159,22 +6312,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
+      <c r="K5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" t="s">
         <v>91</v>
       </c>
-      <c r="K5" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" t="s">
-        <v>92</v>
-      </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -6237,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -6272,8 +6425,14 @@
       <c r="AW5">
         <v>0</v>
       </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6281,22 +6440,22 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -6359,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.42</v>
+        <v>1.5</v>
       </c>
       <c r="AM6">
         <v>0</v>
@@ -6392,6 +6551,256 @@
         <v>0.46</v>
       </c>
       <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>-90</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>-90</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1.5</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>100</v>
+      </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>-90</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>1.5</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3.48</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
         <v>0</v>
       </c>
     </row>
@@ -6401,17 +6810,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -545,63 +545,32 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>[</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>임시</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>]</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인벤토리에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>표시될</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아이콘</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아틀라스</t>
         </r>
         <r>
           <rPr>
@@ -4584,7 +4553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
   <si>
     <t>FullHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4985,10 +4954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InventoryTitle_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InventoryTitle_eng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5118,6 +5083,42 @@
   </si>
   <si>
     <t>Effect_Boom_Yellow_Big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_RocketLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Melee2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryAtlasName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_Melee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_HealKit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC_Grenade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5125,7 +5126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5155,6 +5156,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5182,11 +5190,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5733,1074 +5742,1098 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="33" width="10.625" customWidth="1"/>
-    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="10.625" customWidth="1"/>
-    <col min="42" max="42" width="22.25" customWidth="1"/>
-    <col min="43" max="48" width="10.625" customWidth="1"/>
-    <col min="49" max="49" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="10.625" customWidth="1"/>
-    <col min="52" max="52" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="10.625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="10.625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="22.25" style="2" customWidth="1"/>
+    <col min="43" max="48" width="10.625" style="2" customWidth="1"/>
+    <col min="49" max="49" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AW1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AX1" s="4" t="s">
         <v>127</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1021</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="2">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-90</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2">
-        <v>1021</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0.7</v>
-      </c>
-      <c r="R2">
-        <v>40</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>1000</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
         <v>-90</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>-90</v>
-      </c>
-      <c r="AG2">
+      <c r="AG2" s="2">
         <v>90</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="2">
         <v>0.5</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="2">
         <v>-0.01</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="2">
         <v>0.12</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="2">
         <v>0.66</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
         <v>10</v>
       </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>2804</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>70</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
         <v>5</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>1000</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
         <v>-90</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="2">
         <v>1</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
         <v>90</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="2">
         <v>0.3</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="2">
         <v>-0.01</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="2">
         <v>0.09</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="2">
         <v>1.19</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
         <v>10</v>
       </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>1021</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>1</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>50</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>15</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>1000</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
         <v>-90</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <v>1</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
         <v>0.25</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
         <v>0.126</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="2">
         <v>0.76500000000000001</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="2">
         <v>6</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="2">
         <v>10</v>
       </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
+      <c r="AR4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>0.5</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
         <v>10</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
         <v>0.02</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>-6.3E-2</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <v>-0.56008910000000001</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>-84.721500000000006</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="2">
         <v>-159.9092</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <v>1</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="2">
         <v>1</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="2">
         <v>62.03031</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>21.81701</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="2">
         <v>-23.72195</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
         <v>1.01</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="2">
         <v>0.1</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="2">
         <v>0.08</v>
       </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
+      <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
         <v>0.44</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
+      <c r="AW5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>0.5</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <v>10</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
         <v>-90</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="2">
         <v>1</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="2">
         <v>1</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="2">
         <v>48.723700000000001</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="2">
         <v>-2.6052550000000001</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="2">
         <v>-5.8017580000000004</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
         <v>1.01</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="2">
         <v>0.08</v>
       </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
         <v>0.46</v>
       </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7">
+      <c r="F7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="2">
         <v>100</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
         <v>-90</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
         <v>1</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="2">
         <v>1</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="2">
         <v>1</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="2">
         <v>-90</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
         <v>100</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>100</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>1</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>40</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>5</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>100</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
         <v>-90</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="2">
         <v>1</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="2">
         <v>1.5</v>
       </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
         <v>3.48</v>
       </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
         <v>0</v>
       </c>
     </row>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -4553,7 +4553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
   <si>
     <t>FullHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5120,6 +5120,126 @@
   <si>
     <t>ETC_Grenade</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 2단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 3단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 5단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed6</t>
+  </si>
+  <si>
+    <t>RunSpeed7</t>
+  </si>
+  <si>
+    <t>RunSpeed8</t>
+  </si>
+  <si>
+    <t>RunSpeed9</t>
+  </si>
+  <si>
+    <t>속도 6단계</t>
+  </si>
+  <si>
+    <t>속도 7단계</t>
+  </si>
+  <si>
+    <t>속도 8단계</t>
+  </si>
+  <si>
+    <t>속도 9단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 속도 1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed2</t>
+  </si>
+  <si>
+    <t>걷는 속도 2단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed3</t>
+  </si>
+  <si>
+    <t>걷는 속도 3단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed4</t>
+  </si>
+  <si>
+    <t>걷는 속도 4단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed5</t>
+  </si>
+  <si>
+    <t>걷는 속도 5단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed6</t>
+  </si>
+  <si>
+    <t>걷는 속도 6단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed7</t>
+  </si>
+  <si>
+    <t>걷는 속도 7단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed8</t>
+  </si>
+  <si>
+    <t>걷는 속도 8단계</t>
+  </si>
+  <si>
+    <t>WalkSpeed9</t>
+  </si>
+  <si>
+    <t>걷는 속도 9단계</t>
   </si>
 </sst>
 </file>
@@ -5476,10 +5596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5728,6 +5848,204 @@
       </c>
       <c r="C22" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5741,9 +6059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -4553,7 +4553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>FullHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4591,18 +4591,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 걷는 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RunSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 뛰는 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JumpPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5122,131 +5114,112 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RunSpeed1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 2단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 3단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 4단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도 5단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed6</t>
-  </si>
-  <si>
-    <t>RunSpeed7</t>
-  </si>
-  <si>
-    <t>RunSpeed8</t>
-  </si>
-  <si>
-    <t>RunSpeed9</t>
-  </si>
-  <si>
-    <t>속도 6단계</t>
-  </si>
-  <si>
-    <t>속도 7단계</t>
-  </si>
-  <si>
-    <t>속도 8단계</t>
-  </si>
-  <si>
-    <t>속도 9단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷는 속도 1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeed2</t>
-  </si>
-  <si>
-    <t>걷는 속도 2단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed3</t>
-  </si>
-  <si>
-    <t>걷는 속도 3단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed4</t>
-  </si>
-  <si>
-    <t>걷는 속도 4단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed5</t>
-  </si>
-  <si>
-    <t>걷는 속도 5단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed6</t>
-  </si>
-  <si>
-    <t>걷는 속도 6단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed7</t>
-  </si>
-  <si>
-    <t>걷는 속도 7단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed8</t>
-  </si>
-  <si>
-    <t>걷는 속도 8단계</t>
-  </si>
-  <si>
-    <t>WalkSpeed9</t>
-  </si>
-  <si>
-    <t>걷는 속도 9단계</t>
+    <t>기준 무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5.5,6,6.5,7,7.5,8,8.5,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 속도 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 속도 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2.5,3,3.5,4,4.5,5,5.5,6,6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 걷는 속도 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 뛰는 속도 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorCameraAniDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오 카메라 단계별 흔들리는 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,60,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ashTick</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ashSpeed</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5283,6 +5256,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5310,12 +5298,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5596,456 +5588,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="8">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>250</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1">
-        <v>250</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D28" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B30">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6060,1098 +5938,1098 @@
   <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="42.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="33" width="10.625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="10.625" style="2" customWidth="1"/>
-    <col min="42" max="42" width="22.25" style="2" customWidth="1"/>
-    <col min="43" max="48" width="10.625" style="2" customWidth="1"/>
-    <col min="49" max="49" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="10.625" style="2" customWidth="1"/>
-    <col min="52" max="52" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="42.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="10.625" style="4" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="10.625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="22.25" style="4" customWidth="1"/>
+    <col min="43" max="48" width="10.625" style="4" customWidth="1"/>
+    <col min="49" max="49" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.625" style="4" customWidth="1"/>
+    <col min="52" max="52" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AI1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>126</v>
+      <c r="AX1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="4">
         <v>1021</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>0.7</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="4">
         <v>40</v>
       </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
         <v>5</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="4">
         <v>1000</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
         <v>-90</v>
       </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
         <v>1</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="4">
         <v>1</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="4">
         <v>1</v>
       </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
         <v>-90</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="4">
         <v>90</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="4">
         <v>0.5</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2" s="4">
         <v>-0.01</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="4">
         <v>0.12</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="4">
         <v>0.66</v>
       </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2">
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4">
         <v>10</v>
       </c>
-      <c r="AR2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2">
+      <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>2804</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="4">
         <v>70</v>
       </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
         <v>5</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="4">
         <v>1000</v>
       </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
         <v>-90</v>
       </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
         <v>1</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="4">
         <v>1</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="4">
         <v>1</v>
       </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
         <v>90</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="4">
         <v>0.3</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="4">
         <v>-0.01</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="4">
         <v>0.09</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="4">
         <v>1.19</v>
       </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2">
+      <c r="AP3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4">
         <v>10</v>
       </c>
-      <c r="AR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2">
+      <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="4">
         <v>1021</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="4">
         <v>50</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="4">
         <v>5</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="4">
         <v>15</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="4">
         <v>1000</v>
       </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
         <v>-90</v>
       </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="4">
         <v>1</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="4">
         <v>1</v>
       </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2">
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
         <v>0.25</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
         <v>0.126</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="4">
         <v>0.76500000000000001</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4" s="4">
         <v>6</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="4">
         <v>10</v>
       </c>
-      <c r="AR4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="2">
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="4">
         <v>100</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>0.5</v>
       </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
         <v>10</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
         <v>0.02</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="4">
         <v>-6.3E-2</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="4">
         <v>-0.56008910000000001</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="4">
         <v>-84.721500000000006</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="4">
         <v>-159.9092</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="4">
         <v>1</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="4">
         <v>1</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="4">
         <v>1</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="4">
         <v>62.03031</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="4">
         <v>21.81701</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="4">
         <v>-23.72195</v>
       </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2">
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
         <v>1.01</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="4">
         <v>0.1</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5" s="4">
         <v>0.08</v>
       </c>
-      <c r="AU5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2">
+      <c r="AU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="4">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2">
+      <c r="AW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="M6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="4">
         <v>100</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="4">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>0.5</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
         <v>10</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
         <v>-90</v>
       </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
         <v>1</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="4">
         <v>1</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="4">
         <v>1</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="4">
         <v>48.723700000000001</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="4">
         <v>-2.6052550000000001</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="4">
         <v>-5.8017580000000004</v>
       </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2">
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
         <v>1.01</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6" s="4">
         <v>0.08</v>
       </c>
-      <c r="AU6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="2">
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4">
         <v>0.46</v>
       </c>
-      <c r="AW6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="2">
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="F7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" s="4">
         <v>100</v>
       </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
         <v>-90</v>
       </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
         <v>1</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="4">
         <v>1</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="4">
         <v>1</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="4">
         <v>-90</v>
       </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
         <v>100</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="2">
+      <c r="E8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" s="4">
+        <v>100</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4">
+        <v>40</v>
+      </c>
+      <c r="S8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="T8" s="4">
         <v>100</v>
       </c>
-      <c r="P8" s="2">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>-90</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="AC8" s="4">
         <v>1</v>
       </c>
-      <c r="R8" s="2">
-        <v>40</v>
-      </c>
-      <c r="S8" s="2">
-        <v>5</v>
-      </c>
-      <c r="T8" s="2">
-        <v>100</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>-90</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="4">
         <v>1</v>
       </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8" s="4">
         <v>1.5</v>
       </c>
-      <c r="AM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
         <v>3.48</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2">
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4">
         <v>0</v>
       </c>
     </row>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -4553,7 +4553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
   <si>
     <t>FullHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5171,6 +5171,14 @@
   </si>
   <si>
     <t>30,60,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5191,10 +5199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대시 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>D</t>
     </r>
@@ -5211,7 +5215,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대시 속도</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ullet_trail</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5260,15 +5281,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5301,13 +5322,13 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5590,339 +5611,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="5">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>159</v>
+      <c r="C8" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>0.1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>1.5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>0.2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>250</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>100</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>0.5</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>2.5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>2.5</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5935,1101 +5956,1107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="42.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="10.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="33" width="10.625" style="4" customWidth="1"/>
-    <col min="34" max="34" width="19.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="10.625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="22.25" style="4" customWidth="1"/>
-    <col min="43" max="48" width="10.625" style="4" customWidth="1"/>
-    <col min="49" max="49" width="21.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="10.625" style="4" customWidth="1"/>
-    <col min="52" max="52" width="16.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="33" width="10.625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="10.625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="22.25" style="1" customWidth="1"/>
+    <col min="43" max="48" width="10.625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10.625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AR1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AS1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="AZ1" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="1">
         <v>1021</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0.7</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="1">
         <v>40</v>
       </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
         <v>5</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="1">
         <v>1000</v>
       </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
         <v>-90</v>
       </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
         <v>-90</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="1">
         <v>90</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="1">
         <v>0.5</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="1">
         <v>-0.01</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="1">
         <v>0.12</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="1">
         <v>0.66</v>
       </c>
-      <c r="AP2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="4">
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
         <v>10</v>
       </c>
-      <c r="AR2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="4">
-        <v>0</v>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <v>2804</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="1">
         <v>70</v>
       </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>5</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="1">
         <v>1000</v>
       </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
         <v>-90</v>
       </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
         <v>1</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="1">
         <v>1</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4">
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
         <v>90</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="1">
         <v>0.3</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM3" s="1">
         <v>-0.01</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="1">
         <v>0.09</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="1">
         <v>1.19</v>
       </c>
-      <c r="AP3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="4">
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
         <v>10</v>
       </c>
-      <c r="AR3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="4">
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="1">
         <v>1021</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="1">
         <v>1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="1">
         <v>50</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="1">
         <v>5</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="1">
         <v>1000</v>
       </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
         <v>-90</v>
       </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="1">
         <v>1</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="1">
         <v>1</v>
       </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
+      <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
         <v>0.25</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
         <v>0.126</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="1">
         <v>0.76500000000000001</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="1">
         <v>6</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="1">
         <v>10</v>
       </c>
-      <c r="AR4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="4">
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="1">
         <v>100</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1">
         <v>0.5</v>
       </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>10</v>
       </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
         <v>0.02</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="1">
         <v>-6.3E-2</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="1">
         <v>-0.56008910000000001</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="1">
         <v>-84.721500000000006</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="1">
         <v>-159.9092</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="1">
         <v>1</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="1">
         <v>1</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="1">
         <v>1</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="1">
         <v>62.03031</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="1">
         <v>21.81701</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="1">
         <v>-23.72195</v>
       </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4">
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="4">
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
         <v>1.01</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="1">
         <v>0.1</v>
       </c>
-      <c r="AT5" s="4">
+      <c r="AT5" s="1">
         <v>0.08</v>
       </c>
-      <c r="AU5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="4">
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="4">
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>100</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1">
         <v>0.5</v>
       </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
         <v>10</v>
       </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>-90</v>
       </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="1">
         <v>1</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="1">
         <v>1</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="1">
         <v>48.723700000000001</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="1">
         <v>-2.6052550000000001</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="1">
         <v>-5.8017580000000004</v>
       </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4">
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
         <v>1.01</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="1">
         <v>0.08</v>
       </c>
-      <c r="AU6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="4">
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
         <v>0.46</v>
       </c>
-      <c r="AW6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="4">
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <v>100</v>
       </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="4">
-        <v>0</v>
-      </c>
-      <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>-90</v>
       </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4">
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>1</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="1">
         <v>1</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="1">
         <v>1</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="1">
         <v>-90</v>
       </c>
-      <c r="AF7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="4">
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="4">
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1">
         <v>100</v>
       </c>
-      <c r="AY7" s="4">
+      <c r="AY7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>100</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <v>1</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <v>40</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <v>4</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <v>100</v>
       </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <v>-90</v>
       </c>
-      <c r="AA8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4">
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
         <v>1</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="1">
         <v>1</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="1">
         <v>1</v>
       </c>
-      <c r="AE8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="4">
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="1">
         <v>1.5</v>
       </c>
-      <c r="AM8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="4">
+      <c r="AM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
         <v>3.48</v>
       </c>
-      <c r="AQ8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="4">
+      <c r="AQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\A_School_Project\SpaceWarProject\SpaceWar\Assets\SpaceWar\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
     <sheet name="WeaponTable" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -31,7 +31,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -42,17 +42,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -64,9 +63,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -74,7 +72,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -85,9 +83,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>]</t>
         </r>
@@ -99,9 +96,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>0 GUN
 1 RIFFLE
@@ -118,7 +114,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -129,9 +125,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">]Art/Resources/Item/Weapon </t>
         </r>
@@ -139,7 +134,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -150,17 +145,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -171,17 +165,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -192,17 +185,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -213,9 +205,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">, </t>
         </r>
@@ -223,7 +214,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -234,17 +225,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -255,17 +245,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -276,17 +265,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -297,17 +285,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -318,9 +305,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -332,7 +318,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -347,7 +333,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -358,9 +344,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> (</t>
         </r>
@@ -368,7 +353,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -379,17 +364,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -400,9 +384,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>)</t>
         </r>
@@ -414,9 +397,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -424,7 +406,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -435,9 +417,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">] </t>
         </r>
@@ -445,7 +426,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -456,17 +437,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -477,17 +457,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -498,17 +477,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -519,17 +497,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -544,7 +521,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -555,17 +532,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -576,17 +552,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -601,9 +576,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -611,7 +585,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -622,9 +596,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>]</t>
         </r>
@@ -632,7 +605,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -643,17 +616,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -664,17 +636,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -689,9 +660,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -699,7 +669,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -710,9 +680,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>]</t>
         </r>
@@ -720,7 +689,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -731,17 +700,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -752,17 +720,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -777,9 +744,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -787,7 +753,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -798,9 +764,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>]</t>
         </r>
@@ -808,7 +773,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -819,17 +784,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -840,17 +804,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -865,7 +828,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -876,9 +839,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">] </t>
         </r>
@@ -886,7 +848,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -897,17 +859,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -918,17 +879,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -939,9 +899,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> 1</t>
         </r>
@@ -949,7 +908,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -960,17 +919,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -981,9 +939,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> prefab path.
 Art/Resource/Effect/ </t>
@@ -992,7 +949,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1003,17 +960,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1024,17 +980,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1045,17 +1000,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1067,9 +1021,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1077,7 +1030,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1088,17 +1041,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1109,17 +1061,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1130,17 +1081,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1155,7 +1105,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1166,17 +1116,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1187,9 +1136,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> Bullet ( </t>
         </r>
@@ -1197,7 +1145,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1208,9 +1156,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> Trail Renderer </t>
         </r>
@@ -1218,7 +1165,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1229,17 +1176,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1250,9 +1196,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> )</t>
         </r>
@@ -1260,7 +1205,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1271,9 +1216,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> path</t>
         </r>
@@ -1285,7 +1229,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1296,17 +1240,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1317,17 +1260,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1338,17 +1280,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1359,17 +1300,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1380,17 +1320,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1402,9 +1341,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1412,7 +1350,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1423,17 +1361,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1444,17 +1381,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1465,17 +1401,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1490,7 +1425,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1501,17 +1436,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1522,9 +1456,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> (</t>
         </r>
@@ -1532,7 +1465,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1543,17 +1476,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1564,9 +1496,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> ) </t>
         </r>
@@ -1574,7 +1505,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1585,17 +1516,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1606,17 +1536,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1627,17 +1556,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1648,17 +1576,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1669,17 +1596,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1690,9 +1616,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> shot effect </t>
         </r>
@@ -1700,7 +1625,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1711,17 +1636,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1733,9 +1657,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1743,7 +1666,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1754,17 +1677,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1775,17 +1697,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1796,17 +1717,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1821,7 +1741,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1832,9 +1752,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> (g) </t>
         </r>
@@ -1846,9 +1765,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">0 </t>
         </r>
@@ -1856,7 +1774,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1867,17 +1785,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1888,17 +1805,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1910,9 +1826,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">1 </t>
         </r>
@@ -1920,7 +1835,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1931,17 +1846,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1952,17 +1866,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1973,17 +1886,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -1998,7 +1910,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2009,17 +1921,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2030,17 +1941,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2051,17 +1961,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2076,7 +1985,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2087,17 +1996,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2108,17 +2016,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2133,9 +2040,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -2143,7 +2049,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2154,17 +2060,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2175,9 +2080,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">]
 </t>
@@ -2186,7 +2090,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2197,17 +2101,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2218,17 +2121,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2239,9 +2141,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> Gravity</t>
         </r>
@@ -2253,7 +2154,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2264,17 +2165,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2285,17 +2185,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2306,17 +2205,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2332,9 +2230,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>[</t>
         </r>
@@ -2342,7 +2239,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2353,9 +2250,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">]
 </t>
@@ -2364,7 +2260,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2375,17 +2271,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2396,17 +2291,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2417,17 +2311,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2438,17 +2331,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2459,17 +2351,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2480,17 +2371,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2501,17 +2391,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2522,17 +2411,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2543,17 +2431,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2564,17 +2451,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2585,17 +2471,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2606,17 +2491,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2627,17 +2511,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2648,9 +2531,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> ( </t>
         </r>
@@ -2658,7 +2540,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2669,17 +2551,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2690,17 +2571,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2711,17 +2591,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2732,17 +2611,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2753,17 +2631,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2774,17 +2651,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2795,17 +2671,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2816,9 +2691,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> )</t>
         </r>
@@ -2830,7 +2704,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2841,17 +2715,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2862,17 +2735,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2883,17 +2755,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2904,9 +2775,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -2918,7 +2788,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2929,17 +2799,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2950,17 +2819,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2971,17 +2839,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -2992,9 +2859,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3006,7 +2872,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3017,17 +2883,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3038,17 +2903,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3059,17 +2923,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3080,9 +2943,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3094,7 +2956,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3105,17 +2967,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3126,17 +2987,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3147,17 +3007,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3168,9 +3027,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3182,7 +3040,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3193,17 +3051,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3214,17 +3071,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3235,17 +3091,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3256,9 +3111,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3270,7 +3124,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3281,17 +3135,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3302,17 +3155,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3323,17 +3175,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3344,9 +3195,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3358,7 +3208,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3369,17 +3219,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3390,17 +3239,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3411,17 +3259,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3432,9 +3279,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3446,7 +3292,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3457,17 +3303,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3478,17 +3323,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3499,17 +3343,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3520,9 +3363,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3534,7 +3376,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3545,17 +3387,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3566,17 +3407,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3587,17 +3427,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3608,9 +3447,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3622,7 +3460,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3633,17 +3471,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3654,17 +3491,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3675,17 +3511,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3696,9 +3531,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3710,7 +3544,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3721,17 +3555,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3742,17 +3575,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3763,17 +3595,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3784,9 +3615,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3798,7 +3628,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3809,17 +3639,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3830,17 +3659,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3851,17 +3679,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3872,9 +3699,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3886,9 +3712,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">Bullet </t>
         </r>
@@ -3896,7 +3721,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3907,17 +3732,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3928,9 +3752,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>(</t>
         </r>
@@ -3938,7 +3761,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3949,17 +3772,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3970,9 +3792,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>)</t>
         </r>
@@ -3984,7 +3805,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -3995,17 +3816,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4016,17 +3836,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4041,7 +3860,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4052,17 +3871,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4073,17 +3891,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4098,7 +3915,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4109,17 +3926,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4130,17 +3946,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4151,17 +3966,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4176,7 +3990,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4187,17 +4001,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4208,17 +4021,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4229,17 +4041,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4250,17 +4061,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4275,7 +4085,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4286,17 +4096,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4307,9 +4116,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -4317,7 +4125,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4332,7 +4140,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4343,17 +4151,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4364,9 +4171,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -4374,7 +4180,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4389,7 +4195,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4400,17 +4206,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4421,9 +4226,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -4431,7 +4235,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4446,7 +4250,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4461,7 +4265,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4476,7 +4280,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4487,17 +4291,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4508,17 +4311,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4529,17 +4331,16 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -4553,633 +4354,571 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
+  <si>
+    <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
+  </si>
+  <si>
+    <t>5,5.5,6,6.5,7,7.5,8,8.5,9,10</t>
+  </si>
+  <si>
+    <t>2,2.5,3,3.5,4,4.5,5,5.5,6,6.5</t>
+  </si>
+  <si>
+    <t>ETC_01_Grenade/ETC_01_Grenade</t>
+  </si>
+  <si>
+    <t>Effect_StartShotFlare_Yellow</t>
+  </si>
+  <si>
+    <t>Effect_Attack_Gun_Yellow_End</t>
+  </si>
+  <si>
+    <t>Effect_AttackSword_01,Effect_AttackSword_02</t>
+  </si>
+  <si>
+    <t>Melee_02_ShortSword/Melee_02_ShortSword</t>
+  </si>
+  <si>
+    <t>ETC_02_RecoveryKit/ETC_02_RecoveryKit</t>
+  </si>
+  <si>
+    <t>01/Gun01_01_Base</t>
+  </si>
+  <si>
+    <t>Effect_BulletGreen</t>
+  </si>
+  <si>
+    <t>InventoryDesc_kr</t>
+  </si>
+  <si>
+    <t>Effect_Bullet_Trail</t>
+  </si>
+  <si>
+    <t>산소 모자랄때 받는 데미지(초당)</t>
+  </si>
+  <si>
+    <t>G_RocketLauncher</t>
+  </si>
+  <si>
+    <t>Effect_BreakStone</t>
+  </si>
+  <si>
+    <t>InventoryTitle_eng</t>
+  </si>
+  <si>
+    <t>메테오 공간에 있을 때 데미지</t>
+  </si>
+  <si>
+    <t>InventoryAtlasName</t>
+  </si>
+  <si>
+    <t>Meteor_HitDamage</t>
+  </si>
+  <si>
+    <t>InventoryDesc_eng</t>
+  </si>
+  <si>
+    <t>메테오 카메라 단계별 흔들리는 거리</t>
+  </si>
+  <si>
+    <t>미착용 / 뛸 때 초당 산소 소모량</t>
+  </si>
+  <si>
+    <t>OxyCharger_FullOxy</t>
+  </si>
+  <si>
+    <t>Effect_Boom_Green</t>
+  </si>
+  <si>
+    <t>OxyCharger_UseOxy</t>
+  </si>
+  <si>
+    <t>Effect_Bullet_Big_Yellow</t>
+  </si>
+  <si>
+    <t>Gun02_01_Base/Gun02_01_Base</t>
+  </si>
+  <si>
+    <t>Effect_Attack_Gun_Yellow</t>
+  </si>
+  <si>
+    <t>boomEffectColliderRadius</t>
+  </si>
+  <si>
+    <t>Melee_01_Base/Melee_01_Base</t>
+  </si>
+  <si>
+    <t>RL_01_BazookaBase/RL_01_BazookaBase</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ashSpeed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ashTick</t>
+    </r>
+  </si>
+  <si>
+    <t>baseHitEffect</t>
+  </si>
+  <si>
+    <t>점프 연산시 더해지는 파워</t>
+  </si>
+  <si>
+    <t>산소 충전기 전체 산소</t>
+  </si>
+  <si>
+    <t>Damage_CoolTime</t>
+  </si>
+  <si>
+    <t>데미지 입은 후 쿨타임(초)</t>
+  </si>
+  <si>
+    <t>데스존 마지막 단계 스피드</t>
+  </si>
+  <si>
+    <t>InventoryIcon</t>
+  </si>
+  <si>
+    <t>equipScale_z</t>
+  </si>
+  <si>
+    <t>otherHitSound</t>
+  </si>
+  <si>
+    <t>swordCollider_z</t>
+  </si>
+  <si>
+    <t>swordCollider_x</t>
+  </si>
+  <si>
+    <t>equipScale_x</t>
+  </si>
+  <si>
+    <t>otherHitEffect</t>
+  </si>
+  <si>
+    <t>equipScale_y</t>
+  </si>
+  <si>
+    <t>shotEffectPath</t>
+  </si>
+  <si>
+    <t>swordCollider_y</t>
+  </si>
+  <si>
+    <t>산소 충전기 초당 충전량</t>
+  </si>
+  <si>
+    <t>Meteor_Damage</t>
+  </si>
+  <si>
+    <t>attackTiming</t>
+  </si>
+  <si>
+    <t>DeathZoneDamage</t>
+  </si>
+  <si>
+    <t>launcherGravity</t>
+  </si>
+  <si>
+    <t>WalkSpeedLevel</t>
+  </si>
+  <si>
+    <t>RunSpeedLevel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ullet_trail</t>
+    </r>
+  </si>
+  <si>
+    <t>OxyDamage</t>
+  </si>
+  <si>
+    <t>JumpTick</t>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+  </si>
+  <si>
+    <t>JumpPower</t>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+  </si>
+  <si>
+    <t>점프 지속 시간</t>
+  </si>
+  <si>
+    <t>데스존 2단계 스피드</t>
+  </si>
+  <si>
+    <t>UseOxy_IDLE</t>
+  </si>
+  <si>
+    <t>데스존 3단계 스피드</t>
+  </si>
+  <si>
+    <t>데스존 4단계 스피드</t>
+  </si>
+  <si>
+    <t>UseOxy_RUN</t>
+  </si>
+  <si>
+    <t>메테오 직격 데미지</t>
+  </si>
+  <si>
+    <t>데스존 1단계 스피드</t>
+  </si>
+  <si>
+    <t>equipPos_y</t>
+  </si>
+  <si>
+    <t>equipRot_z</t>
+  </si>
+  <si>
+    <t>sponeRot_y</t>
+  </si>
+  <si>
+    <t>Name_eng</t>
+  </si>
+  <si>
+    <t>equipPos_z</t>
+  </si>
+  <si>
+    <t>equipPos_x</t>
+  </si>
+  <si>
+    <t>coolTime</t>
+  </si>
+  <si>
+    <t>equipRot_y</t>
+  </si>
+  <si>
+    <t>equipRot_x</t>
+  </si>
+  <si>
+    <t>sponeRot_z</t>
+  </si>
+  <si>
+    <t>sponeRot_x</t>
+  </si>
+  <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+  </si>
+  <si>
+    <t>bulletPath</t>
+  </si>
+  <si>
+    <t>maxDistance</t>
+  </si>
+  <si>
+    <t>UseOxy_WALK</t>
+  </si>
+  <si>
+    <t>realValue</t>
+  </si>
+  <si>
+    <t>firePoint_z</t>
+  </si>
+  <si>
+    <t>useSound</t>
+  </si>
+  <si>
+    <t>bulletCount</t>
+  </si>
+  <si>
+    <t>firePoint_x</t>
+  </si>
+  <si>
+    <t>firePoint_y</t>
+  </si>
+  <si>
+    <t>hitSound</t>
+  </si>
+  <si>
+    <t>달리는 속도 단계</t>
+  </si>
+  <si>
+    <t>healUseTime</t>
+  </si>
+  <si>
+    <t>ETC_HealKit</t>
+  </si>
+  <si>
+    <t>ETC_Grenade</t>
+  </si>
+  <si>
+    <t>S_Melee2</t>
+  </si>
+  <si>
+    <t>걷는 속도 단계</t>
+  </si>
+  <si>
+    <t>realValues</t>
+  </si>
+  <si>
+    <t>WeightLimit</t>
+  </si>
+  <si>
+    <t>30,60,90</t>
+  </si>
+  <si>
+    <t>기본 걷는 속도 단계</t>
+  </si>
+  <si>
+    <t>기본 뛰는 속도 단계</t>
+  </si>
+  <si>
+    <t>no_name</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>단검단검</t>
+  </si>
   <si>
     <t>FullHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전체 체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로켓런쳐</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>heal</t>
   </si>
   <si>
     <t>FullOXY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenade</t>
+  </si>
+  <si>
+    <t>G_Hand</t>
+  </si>
+  <si>
+    <t>데스존 데미지</t>
   </si>
   <si>
     <t>전체 산소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>G_Rifle</t>
+  </si>
+  <si>
+    <t>S_Melee</t>
+  </si>
+  <si>
+    <t>기준 무게</t>
+  </si>
+  <si>
+    <t>Name_kr</t>
+  </si>
+  <si>
+    <t>대시 지속시간</t>
+  </si>
+  <si>
+    <t>대시 속도</t>
+  </si>
+  <si>
+    <t>ID_AB31001_Shot</t>
+  </si>
+  <si>
+    <t>미착용 / 가만히 있을때 초당 산소 소모량</t>
+  </si>
+  <si>
+    <t>DeathZoneSpeed_Level5</t>
+  </si>
+  <si>
+    <t>DeathZoneSpeed_Level4</t>
+  </si>
+  <si>
+    <t>DeathZoneSpeed_Level3</t>
+  </si>
+  <si>
+    <t>DeathZoneSpeed_Level2</t>
+  </si>
+  <si>
+    <t>DeathZoneSpeed_Level1</t>
+  </si>
+  <si>
+    <t>Effect_Boom_Yellow_Big</t>
+  </si>
+  <si>
+    <t>미착용 / 걸어갈때 초댕 산소 소모량</t>
+  </si>
+  <si>
+    <t>Effect_StartShotFlare</t>
+  </si>
+  <si>
+    <t>Effect_DamageMeleeBlue</t>
+  </si>
+  <si>
+    <t>bulletColliderRadius</t>
+  </si>
+  <si>
+    <t>swordCollider_center_x</t>
+  </si>
+  <si>
+    <t>swordCollider_center_y</t>
+  </si>
+  <si>
+    <t>Effect_AttackSword_02</t>
+  </si>
+  <si>
+    <t>weaponGetColliderRadius</t>
+  </si>
+  <si>
+    <t>swordCollider_center_z</t>
+  </si>
+  <si>
+    <t>MeteorCameraAniDistance</t>
+  </si>
+  <si>
+    <t>ID_AB31001_Hit</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OxyDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산소 모자랄때 받는 데미지(초당)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 연산시 더해지는 파워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpTick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 지속 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseOxy_IDLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미착용 / 가만히 있을때 초당 산소 소모량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseOxy_RUN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미착용 / 뛸 때 초당 산소 소모량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OxyCharger_FullOxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산소 충전기 전체 산소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OxyCharger_UseOxy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산소 충전기 초당 충전량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meteor_Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meteor_HitDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 직격 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 공간에 있을 때 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage_CoolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데미지 입은 후 쿨타임(초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneSpeed_Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 1단계 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneSpeed_Level2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 2단계 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 3단계 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneSpeed_Level3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneSpeed_Level4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 4단계 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneSpeed_Level5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 마지막 단계 스피드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeathZoneDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데스존 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipPos_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipPos_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipPos_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipRot_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sponeRot_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipScale_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackTiming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>핸드건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>라이플</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로켓런쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launcherGravity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/Gun01_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun02_01_Base/Gun02_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL_01_BazookaBase/RL_01_BazookaBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseOxy_WALK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미착용 / 걸어갈때 초댕 산소 소모량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Attack_Gun_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_StartShotFlare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_StartShotFlare_Yellow</t>
-  </si>
-  <si>
-    <t>Effect_Bullet_Trail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Attack_Gun_Yellow_End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletGreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Boom_Green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BreakStone</t>
-  </si>
-  <si>
-    <t>Effect_BreakStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Bullet_Big_Yellow</t>
-  </si>
-  <si>
-    <t>bulletPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Boom_Yellow_Big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee_01_Base/Melee_01_Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_DamageMeleeBlue</t>
-  </si>
-  <si>
-    <t>shotEffectPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseHitEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherHitEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee_02_ShortSword/Melee_02_ShortSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단검단검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_AttackSword_02</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryIcon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryTitle_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryDesc_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryDesc_eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherHitSound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weaponGetColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firePoint_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boomEffectColliderRadius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulletCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordCollider_center_z</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_AttackSword_01,Effect_AttackSword_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_02_RecoveryKit/ETC_02_RecoveryKit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_HealKit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄</t>
   </si>
   <si>
     <t>힐팩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>healUseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_01_Grenade/ETC_01_Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수류탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BreakStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_Boom_Yellow_Big</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_Rifle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_RocketLauncher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Melee2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InventoryAtlasName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Melee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_HealKit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETC_Grenade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준 무게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,5.5,6,6.5,7,7.5,8,8.5,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷는 속도 단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 속도 단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2.5,3,3.5,4,4.5,5,5.5,6,6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeedLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WalkSpeedLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 걷는 속도 단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 뛰는 속도 단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeteorCameraAniDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오 카메라 단계별 흔들리는 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,60,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대시 지속시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대시 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>ID_AB4100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>_Shot</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ID_AB4100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>_Hit</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Rand,Hit_SpaceShip,Hit_Shelter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5188,109 +4927,68 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>ashTick</t>
+      <t>ashUseOxy</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>D</t>
+      <t>대시시 소모되는</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ashSpeed</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>ullet_trail</t>
+      <t xml:space="preserve"> 산소</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <sz val="8"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5319,16 +5017,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5389,7 +5088,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5424,7 +5123,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5523,21 +5222,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -5599,23 +5298,19 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.125" style="4" bestFit="1" customWidth="1"/>
@@ -5626,266 +5321,266 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5">
         <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
+      <c r="A9" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5">
-        <v>250</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="B21" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>39</v>
@@ -5893,77 +5588,89 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>145</v>
+        <v>94</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>122</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
@@ -5979,7 +5686,10 @@
     <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="33" width="10.625" style="1" customWidth="1"/>
     <col min="34" max="34" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="10.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="10.625" style="1" customWidth="1"/>
     <col min="42" max="42" width="22.25" style="1" customWidth="1"/>
     <col min="43" max="48" width="10.625" style="1" customWidth="1"/>
     <col min="49" max="49" width="21.875" style="1" bestFit="1" customWidth="1"/>
@@ -5990,189 +5700,189 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="AY1" s="3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="O2" s="1">
         <v>1021</v>
@@ -6234,6 +5944,15 @@
       <c r="AH2" s="1">
         <v>0.5</v>
       </c>
+      <c r="AI2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="AL2" s="1">
         <v>1.5</v>
       </c>
@@ -6277,39 +5996,39 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="O3" s="1">
         <v>2804</v>
@@ -6370,6 +6089,15 @@
       </c>
       <c r="AH3" s="1">
         <v>0.3</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="AL3" s="1">
         <v>1.5</v>
@@ -6416,34 +6144,34 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="O4" s="1">
         <v>1021</v>
@@ -6504,6 +6232,15 @@
       </c>
       <c r="AH4" s="1">
         <v>0.25</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="AL4" s="1">
         <v>1.5</v>
@@ -6550,31 +6287,31 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="O5" s="1">
         <v>100</v>
@@ -6681,31 +6418,31 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="O6" s="1">
         <v>100</v>
@@ -6767,6 +6504,7 @@
       <c r="AH6" s="1">
         <v>0</v>
       </c>
+      <c r="AK6" s="7"/>
       <c r="AL6" s="1">
         <v>1.5</v>
       </c>
@@ -6812,22 +6550,22 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="O7" s="1">
         <v>100</v>
@@ -6934,28 +6672,28 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="O8" s="1">
         <v>100</v>
@@ -7061,8 +6799,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -4887,6 +4887,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_Shot</t>
     </r>
@@ -4911,6 +4913,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>_Hit</t>
     </r>
@@ -5306,8 +5310,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5393,7 +5397,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>124</v>
@@ -5656,7 +5660,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5665,9 +5669,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB35" sqref="AB35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -4354,7 +4354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -4953,6 +4953,70 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 산소</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>데스존 첫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 시작</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>paceShipLockTime</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>우주선 첫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 잠금 시간</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>eathZoneFirstComming</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5308,10 +5372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5602,58 +5666,80 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1</v>
+      <c r="A26" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="5">
+        <v>180</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>2</v>
+      <c r="A27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="5">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5669,8 +5755,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
+    <author>Windows 사용자</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -4346,6 +4347,162 @@
             <charset val="129"/>
           </rPr>
           <t>시간</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>플레이어가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맞았을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>터지는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>폭발물의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>콜라이더</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위치</t>
         </r>
       </text>
     </comment>
@@ -4354,7 +4511,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="180">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -4726,9 +4883,6 @@
   </si>
   <si>
     <t>기본 뛰는 속도 단계</t>
-  </si>
-  <si>
-    <t>no_name</t>
   </si>
   <si>
     <t>weight</t>
@@ -5020,12 +5174,157 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Magnet</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>L_02_Magnet/RL_02_Magnet</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>andGun</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RifleGun</t>
+  </si>
+  <si>
+    <t>RocketLauncherRL</t>
+  </si>
+  <si>
+    <t>MeleeMelee</t>
+  </si>
+  <si>
+    <t>Melee2Melee</t>
+  </si>
+  <si>
+    <t>HealKitETC</t>
+  </si>
+  <si>
+    <t>MagnetRL</t>
+  </si>
+  <si>
+    <t>자석총</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_Rifle</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_StartShot_Blue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Trail_Plasma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Boom_Plasma</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BreakStone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>layerHitEffect</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Damage_Plasma</t>
+  </si>
+  <si>
+    <t>boomEffectColliderCenter_x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomEffectColliderCenter_y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boomEffectColliderCenter_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5058,6 +5357,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5085,7 +5399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5096,6 +5410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5374,8 +5689,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5389,13 +5704,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>100</v>
@@ -5403,24 +5718,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="5">
         <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -5464,7 +5779,7 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -5475,18 +5790,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" s="5">
         <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -5519,7 +5834,7 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -5541,7 +5856,7 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -5601,7 +5916,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -5612,7 +5927,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5">
         <v>2.5</v>
@@ -5623,7 +5938,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -5634,7 +5949,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5">
         <v>2.5</v>
@@ -5645,7 +5960,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -5662,29 +5977,29 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="5">
         <v>180</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" s="5">
         <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5723,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>0</v>
@@ -5731,7 +6046,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -5753,11 +6068,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5779,27 +6094,30 @@
     <col min="35" max="35" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="10.625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="10.625" style="1" customWidth="1"/>
     <col min="42" max="42" width="22.25" style="1" customWidth="1"/>
     <col min="43" max="48" width="10.625" style="1" customWidth="1"/>
     <col min="49" max="49" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="51" width="10.625" style="1" customWidth="1"/>
     <col min="52" max="52" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9" style="1"/>
+    <col min="53" max="53" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="26.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>74</v>
@@ -5832,7 +6150,7 @@
         <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>52</v>
@@ -5847,7 +6165,7 @@
         <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>85</v>
@@ -5889,7 +6207,7 @@
         <v>80</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>89</v>
@@ -5901,7 +6219,7 @@
         <v>42</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>91</v>
@@ -5928,16 +6246,16 @@
         <v>43</v>
       </c>
       <c r="AU1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AW1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AY1" s="3" t="s">
         <v>95</v>
@@ -5945,10 +6263,22 @@
       <c r="AZ1" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="BA1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -5957,13 +6287,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>145</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>28</v>
@@ -5974,11 +6304,14 @@
       <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="O2" s="1">
         <v>1021</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
         <v>0.7</v>
@@ -6035,13 +6368,13 @@
         <v>0.5</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL2" s="1">
         <v>1.5</v>
@@ -6059,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AR2" s="1">
         <v>0</v>
@@ -6086,12 +6419,22 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -6100,16 +6443,16 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>10</v>
@@ -6121,7 +6464,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="1">
-        <v>2804</v>
+        <v>1021</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -6181,31 +6524,31 @@
         <v>0.3</v>
       </c>
       <c r="AI3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AK3" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="AL3" s="1">
         <v>1.5</v>
       </c>
       <c r="AM3" s="1">
-        <v>-0.01</v>
+        <v>-2E-3</v>
       </c>
       <c r="AN3" s="1">
         <v>0.09</v>
       </c>
       <c r="AO3" s="1">
-        <v>1.19</v>
+        <v>1.216</v>
       </c>
       <c r="AP3" s="1">
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
@@ -6231,8 +6574,18 @@
       <c r="AY3" s="1">
         <v>0</v>
       </c>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -6243,10 +6596,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -6258,13 +6611,13 @@
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O4" s="1">
-        <v>1021</v>
+        <v>2084</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -6324,13 +6677,13 @@
         <v>0.25</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK4" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL4" s="1">
         <v>1.5</v>
@@ -6348,7 +6701,7 @@
         <v>6</v>
       </c>
       <c r="AQ4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -6374,10 +6727,20 @@
       <c r="AY4" s="1">
         <v>0</v>
       </c>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -6386,19 +6749,19 @@
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>147</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>15</v>
@@ -6505,8 +6868,18 @@
       <c r="AY5" s="1">
         <v>0</v>
       </c>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>98</v>
       </c>
@@ -6517,19 +6890,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
@@ -6637,8 +7010,18 @@
       <c r="AY6" s="1">
         <v>0</v>
       </c>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -6649,10 +7032,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>96</v>
@@ -6759,8 +7142,18 @@
       <c r="AY7" s="1">
         <v>4</v>
       </c>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -6771,19 +7164,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="O8" s="1">
         <v>100</v>
@@ -6885,6 +7278,162 @@
         <v>0</v>
       </c>
       <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>40</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>-90</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>-90</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>10</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="7">
+        <v>2</v>
+      </c>
+      <c r="BD9" s="7">
         <v>0</v>
       </c>
     </row>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -5245,22 +5245,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_Rifle</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect_StartShot_Blue</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -5317,6 +5301,10 @@
       </rPr>
       <t>z</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Magnet</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6071,8 +6059,8 @@
   <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T10" sqref="T10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6264,16 +6252,16 @@
         <v>57</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB1" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="BD1" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.3">
@@ -6305,7 +6293,7 @@
         <v>5</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O2" s="1">
         <v>1021</v>
@@ -7176,7 +7164,7 @@
         <v>132</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O8" s="1">
         <v>100</v>
@@ -7307,20 +7295,20 @@
       <c r="E9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="O9" s="7">
         <v>2000</v>
@@ -7338,7 +7326,7 @@
         <v>2</v>
       </c>
       <c r="T9" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U9" s="7">
         <v>0</v>
@@ -7425,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB9" s="7">
         <v>0</v>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -6059,8 +6059,8 @@
   <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AL9" s="7">
         <v>1.5</v>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
     <sheet name="WeaponTable" sheetId="2" r:id="rId2"/>
+    <sheet name="NetworkObjectTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -105,7 +106,8 @@
 2 ROCKET LAUNCHER
 3 Sword
 4 Grenade
-5 Heal pack</t>
+5 Heal pack
+6 Satellite</t>
         </r>
       </text>
     </comment>
@@ -4511,7 +4513,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="191">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -5305,6 +5307,107 @@
   </si>
   <si>
     <t>G_Magnet</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RL_03_Satellite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/RL_03_Satellite</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Satellite</t>
+  </si>
+  <si>
+    <t>G_Satellite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위성총</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>atellite Gun</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Satellite_Trail</t>
+  </si>
+  <si>
+    <t>Effect_Satellite_Call</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>refabPath</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>attllite</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_Satellite</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5387,7 +5490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5399,6 +5502,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5675,10 +5784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5686,7 +5795,7 @@
     <col min="1" max="1" width="23.625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -6045,6 +6154,10 @@
       <c r="D31" s="4" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="D32" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6056,11 +6169,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH10" sqref="AH10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6068,7 +6181,8 @@
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="42.875" style="1" bestFit="1" customWidth="1"/>
@@ -6277,7 +6391,7 @@
       <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -7422,6 +7536,147 @@
         <v>2</v>
       </c>
       <c r="BD9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O10" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>2</v>
+      </c>
+      <c r="R10" s="7">
+        <v>30</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>20</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>-90</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>-90</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="7"/>
+      <c r="BB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7431,4 +7686,40 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -6171,9 +6171,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7692,7 +7692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
     <sheet name="WeaponTable" sheetId="2" r:id="rId2"/>
     <sheet name="NetworkObjectTable" sheetId="3" r:id="rId3"/>
+    <sheet name="PlanetTable" sheetId="4" r:id="rId4"/>
+    <sheet name="PlanetObstacleTable" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4512,8 +4514,65 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 사용자</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">지속딜
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상태변화</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -5408,6 +5467,226 @@
   </si>
   <si>
     <t>Effect_Satellite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanetName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ravity</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox_SunSize_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox_Atmosphere_Thickness_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directional_Light_Intensity_Max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>eteor_offset</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ars</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>epler</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox_Atmosphere_Thickness_Min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Directional_Light_Intensity_Min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyBox_SunSize_Min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_DayLight_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_DayLight_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_DayLight_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_DayLight_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_DayLight_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_DayLight_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_DayLight_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_DayLight_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_DayLight_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_Night_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_Night_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_SkyColor_Night_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_Night_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_Night_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_EquatorColor_Night_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_Night_R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_Night_G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmbientLight_GroundColor_Night_B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>amage</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5490,7 +5769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5508,6 +5787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6171,9 +6451,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6457,13 +6737,13 @@
       <c r="AD2" s="1">
         <v>1</v>
       </c>
-      <c r="AE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1">
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
         <v>-90</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="7">
         <v>90</v>
       </c>
       <c r="AH2" s="1">
@@ -6613,14 +6893,14 @@
       <c r="AD3" s="1">
         <v>1</v>
       </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>90</v>
+      <c r="AE3" s="7">
+        <v>-1.511719</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>-25.14584</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>10.49802</v>
       </c>
       <c r="AH3" s="1">
         <v>0.3</v>
@@ -6766,14 +7046,14 @@
       <c r="AD4" s="1">
         <v>1</v>
       </c>
-      <c r="AE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0</v>
+      <c r="AE4" s="7">
+        <v>6.6853639999999999</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>-22.392579999999999</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>15.777889999999999</v>
       </c>
       <c r="AH4" s="1">
         <v>0.25</v>
@@ -6916,14 +7196,14 @@
       <c r="AD5" s="1">
         <v>1</v>
       </c>
-      <c r="AE5" s="1">
-        <v>62.03031</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>21.81701</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>-23.72195</v>
+      <c r="AE5" s="7">
+        <v>-2.5998839999999999</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>-25.151060000000001</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>17.066970000000001</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -7057,14 +7337,14 @@
       <c r="AD6" s="1">
         <v>1</v>
       </c>
-      <c r="AE6" s="1">
-        <v>48.723700000000001</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>-2.6052550000000001</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>-5.8017580000000004</v>
+      <c r="AE6" s="7">
+        <v>-0.13436890000000001</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>-25.7334</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>15.99086</v>
       </c>
       <c r="AH6" s="1">
         <v>0</v>
@@ -7190,14 +7470,14 @@
       <c r="AD7" s="1">
         <v>1</v>
       </c>
-      <c r="AE7" s="1">
-        <v>-90</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
+      <c r="AE7" s="7">
+        <v>-21.16611</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>68.838639999999998</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>-1.5071110000000001</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>
@@ -7328,14 +7608,14 @@
       <c r="AD8" s="1">
         <v>1</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
+      <c r="AE8" s="7">
+        <v>10.509510000000001</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>-6.2195130000000001</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>-154.7475</v>
       </c>
       <c r="AH8" s="1">
         <v>0.28000000000000003</v>
@@ -7473,13 +7753,13 @@
         <v>1</v>
       </c>
       <c r="AE9" s="7">
-        <v>-90</v>
+        <v>-1.4373779999999999E-2</v>
       </c>
       <c r="AF9" s="7">
-        <v>0</v>
+        <v>-20.955380000000002</v>
       </c>
       <c r="AG9" s="7">
-        <v>0</v>
+        <v>18.25703</v>
       </c>
       <c r="AH9" s="7">
         <v>0.25</v>
@@ -7616,13 +7896,13 @@
         <v>1</v>
       </c>
       <c r="AE10" s="7">
-        <v>-90</v>
+        <v>-2.4452079999999999E-3</v>
       </c>
       <c r="AF10" s="7">
-        <v>0</v>
+        <v>-20.559570000000001</v>
       </c>
       <c r="AG10" s="7">
-        <v>0</v>
+        <v>-76.052120000000002</v>
       </c>
       <c r="AH10" s="7">
         <v>0.25</v>
@@ -7722,4 +8002,338 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="8" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="10" max="10" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="31.625" customWidth="1"/>
+    <col min="13" max="13" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="35.75" customWidth="1"/>
+    <col min="16" max="16" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="35.625" customWidth="1"/>
+    <col min="19" max="19" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="28.625" customWidth="1"/>
+    <col min="22" max="22" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="32.75" customWidth="1"/>
+    <col min="25" max="25" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.87</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
+      <c r="J3">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="K3">
+        <v>2.258</v>
+      </c>
+      <c r="L3">
+        <v>1.121</v>
+      </c>
+      <c r="M3">
+        <v>0.95587999999999995</v>
+      </c>
+      <c r="N3">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.16868</v>
+      </c>
+      <c r="P3">
+        <v>0.93381999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.57960999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.16868</v>
+      </c>
+      <c r="S3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.35</v>
+      </c>
+      <c r="U3">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.74</v>
+      </c>
+      <c r="W3">
+        <v>0.61</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.35</v>
+      </c>
+      <c r="AA3">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GameTable" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -69,6 +70,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -89,6 +91,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>]</t>
         </r>
@@ -102,6 +105,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>0 GUN
 1 RIFFLE
@@ -132,6 +136,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">]Art/Resources/Item/Weapon </t>
         </r>
@@ -152,6 +157,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -172,6 +178,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -192,6 +199,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -212,6 +220,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">, </t>
         </r>
@@ -232,6 +241,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -252,6 +262,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -272,6 +283,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -292,6 +304,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -312,6 +325,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -351,6 +365,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (</t>
         </r>
@@ -371,6 +386,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -391,6 +407,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>)</t>
         </r>
@@ -404,6 +421,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -424,6 +442,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">] </t>
         </r>
@@ -444,6 +463,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -464,6 +484,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -484,6 +505,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -504,6 +526,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -539,6 +562,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -559,6 +583,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -583,6 +608,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -603,6 +629,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>]</t>
         </r>
@@ -623,6 +650,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -643,6 +671,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -667,6 +696,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -687,6 +717,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>]</t>
         </r>
@@ -707,6 +738,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -727,6 +759,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -751,6 +784,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -771,6 +805,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>]</t>
         </r>
@@ -791,6 +826,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -811,6 +847,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -846,6 +883,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">] </t>
         </r>
@@ -866,6 +904,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -886,6 +925,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -906,6 +946,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 1</t>
         </r>
@@ -926,6 +967,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -946,6 +988,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> prefab path.
 Art/Resource/Effect/ </t>
@@ -967,6 +1010,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -987,6 +1031,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1007,6 +1052,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1028,6 +1074,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1048,6 +1095,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1068,6 +1116,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1088,6 +1137,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1123,6 +1173,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1143,6 +1194,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Bullet ( </t>
         </r>
@@ -1163,6 +1215,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Trail Renderer </t>
         </r>
@@ -1183,6 +1236,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1203,6 +1257,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> )</t>
         </r>
@@ -1223,6 +1278,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> path</t>
         </r>
@@ -1247,6 +1303,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1267,6 +1324,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1287,6 +1345,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1307,6 +1366,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1327,6 +1387,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1348,6 +1409,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1368,6 +1430,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1388,6 +1451,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1408,6 +1472,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1443,6 +1508,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1463,6 +1529,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (</t>
         </r>
@@ -1483,6 +1550,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1503,6 +1571,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> ) </t>
         </r>
@@ -1523,6 +1592,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1543,6 +1613,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1563,6 +1634,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1583,6 +1655,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1603,6 +1676,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1623,6 +1697,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> shot effect </t>
         </r>
@@ -1643,6 +1718,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1664,6 +1740,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">/ </t>
         </r>
@@ -1684,6 +1761,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1704,6 +1782,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1724,6 +1803,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1759,6 +1839,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> (g) </t>
         </r>
@@ -1772,6 +1853,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">0 </t>
         </r>
@@ -1792,6 +1874,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1812,6 +1895,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1833,6 +1917,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1 </t>
         </r>
@@ -1853,6 +1938,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1873,6 +1959,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1893,6 +1980,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1928,6 +2016,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1948,6 +2037,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1968,6 +2058,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2003,6 +2094,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2023,6 +2115,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2047,6 +2140,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -2067,6 +2161,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2087,6 +2182,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">]
 </t>
@@ -2108,6 +2204,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2128,6 +2225,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2148,6 +2246,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Gravity</t>
         </r>
@@ -2172,6 +2271,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2192,6 +2292,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2212,6 +2313,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2237,6 +2339,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>[</t>
         </r>
@@ -2257,6 +2360,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">]
 </t>
@@ -2278,6 +2382,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2298,6 +2403,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2318,6 +2424,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2338,6 +2445,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2358,6 +2466,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2378,6 +2487,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2398,6 +2508,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2418,6 +2529,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2438,6 +2550,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2458,6 +2571,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2478,6 +2592,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2498,6 +2613,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2518,6 +2634,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2538,6 +2655,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> ( </t>
         </r>
@@ -2558,6 +2676,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2578,6 +2697,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2598,6 +2718,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2618,6 +2739,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2638,6 +2760,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2658,6 +2781,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2678,6 +2802,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2698,6 +2823,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> )</t>
         </r>
@@ -2722,6 +2848,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2742,6 +2869,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2762,6 +2890,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2782,6 +2911,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -2806,6 +2936,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2826,6 +2957,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2846,6 +2978,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2866,6 +2999,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -2890,6 +3024,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2910,6 +3045,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2930,6 +3066,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2950,6 +3087,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -2974,6 +3112,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -2994,6 +3133,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3014,6 +3154,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3034,6 +3175,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3058,6 +3200,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3078,6 +3221,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3098,6 +3242,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3118,6 +3263,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3142,6 +3288,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3162,6 +3309,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3182,6 +3330,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3202,6 +3351,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3226,6 +3376,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3246,6 +3397,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3266,6 +3418,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3286,6 +3439,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3310,6 +3464,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3330,6 +3485,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3350,6 +3506,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3370,6 +3527,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3394,6 +3552,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3414,6 +3573,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3434,6 +3594,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3454,6 +3615,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3478,6 +3640,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3498,6 +3661,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3518,6 +3682,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3538,6 +3703,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -3562,6 +3728,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3582,6 +3749,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3602,6 +3770,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3622,6 +3791,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -3646,6 +3816,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3666,6 +3837,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3686,6 +3858,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3706,6 +3879,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -3719,6 +3893,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Bullet </t>
         </r>
@@ -3739,6 +3914,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3759,6 +3935,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>(</t>
         </r>
@@ -3779,6 +3956,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3799,6 +3977,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>)</t>
         </r>
@@ -3823,6 +4002,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3843,6 +4023,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3878,6 +4059,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3898,6 +4080,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3933,6 +4116,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3953,6 +4137,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -3973,6 +4158,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4008,6 +4194,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4028,6 +4215,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4048,6 +4236,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4068,6 +4257,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4103,6 +4293,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4123,6 +4314,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> x</t>
         </r>
@@ -4158,6 +4350,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4178,6 +4371,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> y</t>
         </r>
@@ -4213,6 +4407,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4233,6 +4428,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> z</t>
         </r>
@@ -4298,6 +4494,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4318,6 +4515,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4338,6 +4536,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -4572,7 +4771,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="228">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -5689,6 +5888,42 @@
     <t>CoolTime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_Rifle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5712,6 +5947,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5769,7 +6005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5788,6 +6024,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6451,9 +6688,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BD10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6815,8 +7052,8 @@
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
+      <c r="A3" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7764,6 +8001,11 @@
       <c r="AH9" s="7">
         <v>0.25</v>
       </c>
+      <c r="AI9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
       <c r="AL9" s="7">
         <v>1.5</v>
       </c>
@@ -7907,6 +8149,11 @@
       <c r="AH10" s="7">
         <v>0.25</v>
       </c>
+      <c r="AI10" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
       <c r="AL10" s="7">
         <v>1.5</v>
       </c>
@@ -8008,7 +8255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>

--- a/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
+++ b/SpaceWar/Assets/SpaceWar/Table/GameInfoTable.xlsx
@@ -4771,7 +4771,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="229">
   <si>
     <t>9000,8000,7000,6000,5000,4000,3000,2000,1000,0</t>
   </si>
@@ -5922,6 +5922,10 @@
   </si>
   <si>
     <t>G_Rifle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explo_Grenade_Incendiary</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -6689,8 +6693,8 @@
   <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6711,7 +6715,7 @@
     <col min="20" max="33" width="10.625" style="1" customWidth="1"/>
     <col min="34" max="34" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="41" width="10.625" style="1" customWidth="1"/>
@@ -6942,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="U2" s="1">
         <v>1000</v>
@@ -7092,13 +7096,13 @@
         <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1">
         <v>1000</v>
@@ -7140,7 +7144,7 @@
         <v>10.49802</v>
       </c>
       <c r="AH3" s="1">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>151</v>
@@ -7251,7 +7255,7 @@
         <v>5</v>
       </c>
       <c r="T4" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="U4" s="1">
         <v>1000</v>
@@ -7293,7 +7297,7 @@
         <v>15.777889999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>125</v>
@@ -7401,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U5" s="1">
         <v>0</v>
@@ -7542,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -7857,6 +7861,9 @@
       <c r="AH8" s="1">
         <v>0.28000000000000003</v>
       </c>
+      <c r="AJ8" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="AL8" s="1">
         <v>1.5</v>
       </c>
@@ -8105,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U10" s="7">
         <v>0</v>
